--- a/src/main/resources/excel-templates/accomplishment_Report.xlsx
+++ b/src/main/resources/excel-templates/accomplishment_Report.xlsx
@@ -1,43 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_C5FC4E91523C85261A92AB99C8E0F97A4C786BA2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ABDA7CD-42A2-4335-B9CF-DA6FC9802AA3}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="6950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Accomplishment_Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Accomplishment_Report!$A$2:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Accomplishment_Report!$A$2:$H$5</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Accomplishment Report</t>
   </si>
   <si>
-    <t>slNo</t>
+    <t>S.No</t>
   </si>
   <si>
     <t>Resource Name</t>
@@ -60,17 +46,26 @@
   <si>
     <t>Rated On</t>
   </si>
-  <si>
-    <t>Comments</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -84,12 +79,162 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +259,194 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -139,181 +470,373 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF505050"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF505050"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF505050"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FF505050"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF505050"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF505050"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7E7"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDAE3F3"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00B4C7E7"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00DAE3F3"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -328,48 +851,41 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
+      <xdr:colOff>285840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1706880</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:colOff>733320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1062000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 3"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:srcRect t="24833" b="21468"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20320" y="0"/>
-          <a:ext cx="3799840" cy="1229360"/>
+          <a:off x="285750" y="19050"/>
+          <a:ext cx="2012315" cy="1042670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -385,7 +901,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -401,7 +917,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -413,7 +929,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -427,12 +943,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -460,31 +976,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -512,23 +1011,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -670,92 +1152,90 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.00909090909091" defaultRowHeight="14.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="6.45703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.40625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.2109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.8359375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.27734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.10546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.5390625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.41015625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.0859375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.01171875" style="2"/>
+    <col min="1" max="1" width="7.70909090909091" style="2" customWidth="1"/>
+    <col min="2" max="3" width="14.7" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15.4181818181818" customWidth="1"/>
+    <col min="6" max="6" width="13.0090909090909" customWidth="1"/>
+    <col min="7" max="9" width="16.7090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10" t="s">
+    <row r="1" ht="87" customHeight="1" spans="1:9">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H5">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>